--- a/classes-attributes.xlsx
+++ b/classes-attributes.xlsx
@@ -762,7 +762,7 @@
   <dimension ref="B2:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
